--- a/Material/Planning_file.xlsx
+++ b/Material/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A5B665-2A74-4352-A39A-33A8473CF2D1}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{201890F5-8177-48F8-A6BE-067B152148C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="222">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -41,42 +41,24 @@
     <t>Week5</t>
   </si>
   <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>Week6</t>
-  </si>
-  <si>
     <t>Spring Security</t>
   </si>
   <si>
     <t>on All Service</t>
   </si>
   <si>
-    <t>Week7</t>
-  </si>
-  <si>
     <t>Spring Cloud</t>
   </si>
   <si>
     <t>API Gateway and Load Balancer</t>
   </si>
   <si>
-    <t>Week8</t>
-  </si>
-  <si>
-    <t>Logging, Junit, Extra</t>
-  </si>
-  <si>
     <t>Coverage for one service</t>
   </si>
   <si>
     <t>Evaluation of Project</t>
   </si>
   <si>
-    <t>Week9   Wind Up Project    --react</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -542,9 +524,6 @@
     <t>Learn Docker / Docker Hub</t>
   </si>
   <si>
-    <t>Circuit Breaker Example</t>
-  </si>
-  <si>
     <t>Revise docker,MS, Architecture,Spring Cloud</t>
   </si>
   <si>
@@ -644,67 +623,79 @@
     <t>Spring Security JWT Example</t>
   </si>
   <si>
+    <t>Spring Security -JWT</t>
+  </si>
+  <si>
+    <t>Spring Securtity-JWT-Revision</t>
+  </si>
+  <si>
+    <t>Implement Swagger on lb connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDBMS vs NoSQL , CAP theorom </t>
+  </si>
+  <si>
+    <t>Spring Security using OAuth2 in API Gateway</t>
+  </si>
+  <si>
+    <t>Swagger on lbconnect</t>
+  </si>
+  <si>
+    <t>Junit on lbconnect</t>
+  </si>
+  <si>
+    <t>Score check deployment in AWS deployment Beanstalk</t>
+  </si>
+  <si>
+    <t>Implement JUNIT on lb connect</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Deployment of scorecheck on AWS</t>
+  </si>
+  <si>
+    <t>Material Writing 1</t>
+  </si>
+  <si>
+    <t>Material Writing 2</t>
+  </si>
+  <si>
+    <t>Material Writing 3</t>
+  </si>
+  <si>
+    <t>Material Writing 4</t>
+  </si>
+  <si>
+    <t>Material Writing on Junit</t>
+  </si>
+  <si>
+    <t>JUNIT Material</t>
+  </si>
+  <si>
+    <t>Material till date</t>
+  </si>
+  <si>
+    <t>OpenAuth Flow</t>
+  </si>
+  <si>
+    <t>Spring boot Profiling Example</t>
+  </si>
+  <si>
+    <t>Debugging of Project</t>
+  </si>
+  <si>
     <t>IN PROGRESS</t>
   </si>
   <si>
-    <t>Spring Security -JWT</t>
-  </si>
-  <si>
-    <t>Spring Securtity-JWT-Revision</t>
-  </si>
-  <si>
-    <t>Implement Swagger on lb connect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDBMS vs NoSQL , CAP theorom </t>
-  </si>
-  <si>
-    <t>Spring Security using OAuth2 in API Gateway</t>
-  </si>
-  <si>
-    <t>Swagger on lbconnect</t>
-  </si>
-  <si>
-    <t>Junit on lbconnect</t>
-  </si>
-  <si>
-    <t>Score check deployment in AWS deployment Beanstalk</t>
-  </si>
-  <si>
-    <t>AWS deployment Fargate Example</t>
-  </si>
-  <si>
-    <t>AWS other tools example</t>
-  </si>
-  <si>
-    <t>Implement JUNIT on lb connect</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Deployment of scorecheck on AWS</t>
-  </si>
-  <si>
-    <t>Material Writing 1</t>
-  </si>
-  <si>
-    <t>Material Writing 2</t>
-  </si>
-  <si>
-    <t>Material Writing 3</t>
-  </si>
-  <si>
-    <t>Material Writing 4</t>
-  </si>
-  <si>
-    <t>Material Writing on Junit</t>
-  </si>
-  <si>
-    <t>JUNIT Material</t>
-  </si>
-  <si>
-    <t>Material till date</t>
+    <t>Week6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Junit, Extra</t>
+  </si>
+  <si>
+    <t>Week8,9</t>
   </si>
 </sst>
 </file>
@@ -751,7 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +846,18 @@
 </file>
 
 <file path=xl/persons/person20.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person21.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person22.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person23.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1183,98 +1186,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF14EA3-5C36-4115-B611-7D92AD21A6E3}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1286,238 +1276,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.33203125" customWidth="1"/>
-    <col min="3" max="3" width="88.44140625" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="77.36328125" customWidth="1"/>
+    <col min="3" max="3" width="88.453125" customWidth="1"/>
+    <col min="4" max="4" width="51.90625" customWidth="1"/>
+    <col min="5" max="5" width="40.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1525,188 +1515,188 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
       <c r="B43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1717,73 +1707,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="79.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="79.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1792,21 +1782,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1815,21 +1805,21 @@
         <v>2.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1838,21 +1828,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1861,456 +1851,442 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2326,394 +2302,394 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>1000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D35">
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>10000</v>
@@ -2726,143 +2702,148 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C282-30F9-4C3F-BFE9-E285AB2EC4AF}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="2" max="2" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
         <v>173</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2882,273 +2863,273 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="D27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Material/Planning_file.xlsx
+++ b/Material/Planning_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9ea70395e3e2f0/Desktop/Workspace/colts/Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{201890F5-8177-48F8-A6BE-067B152148C3}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{99A3D794-DAC4-4F58-9080-C95B7FA4B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA8BCF02-98A6-4D90-82A2-191B559942E7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="843" activeTab="1" xr2:uid="{5B08056E-D4C1-411A-A5D7-72B566934E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="220">
   <si>
     <t>Spring Boot /Spring Data,Mysql Integration,GitHub</t>
   </si>
@@ -599,9 +599,6 @@
     <t>Spring Cloud Revision \ Quiz</t>
   </si>
   <si>
-    <t>TO DO</t>
-  </si>
-  <si>
     <t>Spring Security using JWT,KeyCloack</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>Implement JUNIT on lb connect</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>Deployment of scorecheck on AWS</t>
   </si>
   <si>
@@ -692,10 +686,10 @@
     <t>Week6,7</t>
   </si>
   <si>
-    <t xml:space="preserve"> Junit, Extra</t>
-  </si>
-  <si>
     <t>Week8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Junit AND OTHERS</t>
   </si>
 </sst>
 </file>
@@ -727,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,12 +731,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -770,7 +758,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1189,7 +1176,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1241,7 +1228,7 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1255,10 +1242,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1276,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A062D1C-02EE-48AD-988C-E38258642272}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,7 +1555,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1576,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1584,7 +1571,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1592,7 +1579,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1600,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1608,7 +1595,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1616,7 +1603,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1624,7 +1611,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1632,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1640,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1648,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1656,14 +1643,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1672,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1680,23 +1667,23 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
-        <v>216</v>
+      <c r="B44" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
-        <v>217</v>
+      <c r="B45" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1709,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE434F8-22B5-4428-86F6-4BA9F426A214}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2135,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
@@ -2146,10 +2133,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
@@ -2163,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
@@ -2177,7 +2164,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
@@ -2191,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
@@ -2205,7 +2192,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
@@ -2224,10 +2211,10 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2238,10 +2225,10 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2255,7 +2242,7 @@
         <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2266,10 +2253,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" t="s">
         <v>216</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2280,10 +2267,10 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2838,12 +2825,12 @@
         <v>184</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
